--- a/zutnlp-master/zutnlp-text/doc/log/陈金新.xlsx
+++ b/zutnlp-master/zutnlp-text/doc/log/陈金新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Documents\Tencent Files\912050304\FileRecv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{853B89F6-6241-4E9E-939B-82C2683420FA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B8D73B3F-CCA6-4624-AE63-AFF0B882C9C5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>日志报告</t>
   </si>
@@ -125,6 +125,21 @@
   </si>
   <si>
     <t>将hanlp分析出来的返回到页面上</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.07.23</t>
+  </si>
+  <si>
+    <t>建立接口，传入数据库</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立接口，让输入的文本进行分析后跑进数据库中</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何将网页输入的文本传回编译器中</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -185,7 +200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +212,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,7 +503,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" activeCellId="1" sqref="B9 D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,12 +516,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -617,7 +635,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
